--- a/reddit_top_posts_with_sentiment.xlsx
+++ b/reddit_top_posts_with_sentiment.xlsx
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>

--- a/reddit_top_posts_with_sentiment.xlsx
+++ b/reddit_top_posts_with_sentiment.xlsx
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
